--- a/biology/Zoologie/Dasyrhynchus_pacificus/Dasyrhynchus_pacificus.xlsx
+++ b/biology/Zoologie/Dasyrhynchus_pacificus/Dasyrhynchus_pacificus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasyrhynchus pacificus est une espèce de cestodes de la famille des Lacistorhynchidae.
 Le spécimen type a été identifié par Robinson chez Argyrosomus japonicus au large de la plage de Bondi en Nouvelle-Galles du Sud sur les côtes australiennes.
-La forme adulte est décrite en 1989[1], trouvée sur un Requin cuivre (Carcharhinus brachyurus) des cotes brésiliennes.
+La forme adulte est décrite en 1989, trouvée sur un Requin cuivre (Carcharhinus brachyurus) des cotes brésiliennes.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Edward S. Robinson, « Cestoda (Tetraphyliidea and Trypanorhyncha) from marine fishes of New South Wales », Records of the Australian Museum, Sydney, Australian Museum et inconnu, vol. 26,‎ 23 mars 1964, p. 341-348 (ISSN 0067-1975 et 2201-4349, OCLC 1385608, lire en ligne)</t>
         </is>
